--- a/LEL/LELAdmin/UploadFile/商品批量导入格式.xlsx
+++ b/LEL/LELAdmin/UploadFile/商品批量导入格式.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>商品序列号</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>是否为散货(1是,0不是)</t>
+  </si>
+  <si>
+    <t>最小采购量</t>
   </si>
   <si>
     <t>000001</t>
@@ -120,8 +123,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -141,46 +144,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -188,7 +154,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -209,6 +190,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -218,54 +268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -280,187 +283,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,74 +479,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,6 +509,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
@@ -582,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyAlignment="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="0">
@@ -591,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,10 +1056,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1074,7 +1077,7 @@
     <col min="14" max="14" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1117,19 +1120,22 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1156,10 +1162,13 @@
         <v>1000</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2">
         <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1194,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1193,18 +1202,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1235,41 +1244,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1300,18 +1309,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>12</v>

--- a/LEL/LELAdmin/UploadFile/商品批量导入格式.xlsx
+++ b/LEL/LELAdmin/UploadFile/商品批量导入格式.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>商品序列号</t>
   </si>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>最小采购量</t>
+  </si>
+  <si>
+    <t>上架(0不上架/1上架)</t>
+  </si>
+  <si>
+    <t>是否推荐(0否/1是)</t>
+  </si>
+  <si>
+    <t>是否新品(0否1是)</t>
+  </si>
+  <si>
+    <t>是否热门(0否/1是)</t>
+  </si>
+  <si>
+    <t>是否秒杀(0否/1是)</t>
   </si>
   <si>
     <t>000001</t>
@@ -124,8 +139,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
@@ -145,6 +160,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -154,7 +177,76 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -175,13 +267,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -191,62 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -254,21 +284,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -283,13 +298,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,157 +448,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +496,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,45 +572,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -554,23 +584,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,145 +597,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,10 +1071,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1075,9 +1090,15 @@
     <col min="12" max="12" width="5.375" customWidth="1"/>
     <col min="13" max="13" width="23.625" customWidth="1"/>
     <col min="14" max="14" width="22.625" customWidth="1"/>
+    <col min="15" max="15" width="10.875" customWidth="1"/>
+    <col min="16" max="16" width="22.625" customWidth="1"/>
+    <col min="17" max="17" width="20.375" customWidth="1"/>
+    <col min="18" max="18" width="17.375" customWidth="1"/>
+    <col min="19" max="19" width="23.625" customWidth="1"/>
+    <col min="20" max="20" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1122,20 +1143,35 @@
       </c>
       <c r="O1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1162,7 +1198,7 @@
         <v>1000</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1194,7 +1230,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1202,18 +1238,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1244,41 +1280,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1309,18 +1345,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>12</v>

--- a/LEL/LELAdmin/UploadFile/商品批量导入格式.xlsx
+++ b/LEL/LELAdmin/UploadFile/商品批量导入格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24150" windowHeight="12465"/>
+    <workbookView windowWidth="24090" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="商品录入" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>商品序列号</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>是否秒杀(0否/1是)</t>
+  </si>
+  <si>
+    <t>（金额满减）满</t>
+  </si>
+  <si>
+    <t>（金额满减）减</t>
+  </si>
+  <si>
+    <t>（数量满减）满</t>
+  </si>
+  <si>
+    <t>（数量满减）减</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>折扣</t>
   </si>
   <si>
     <t>000001</t>
@@ -137,11 +155,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -159,9 +178,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -177,113 +302,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -298,25 +317,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +407,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,145 +485,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,31 +515,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,17 +550,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,11 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="0">
@@ -609,142 +628,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1071,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V$1:V$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1096,9 +1118,12 @@
     <col min="18" max="18" width="17.375" customWidth="1"/>
     <col min="19" max="19" width="23.625" customWidth="1"/>
     <col min="20" max="20" width="18.5" customWidth="1"/>
+    <col min="21" max="21" width="16.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.125" customWidth="1"/>
+    <col min="23" max="24" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1159,19 +1184,37 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+    <row r="2" spans="1:26">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1198,13 +1241,46 @@
         <v>1000</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
         <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1306,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1238,18 +1314,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1280,41 +1356,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
+      <c r="A2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
+      <c r="A3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1345,18 +1421,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>37</v>
+      <c r="A2" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B2">
         <v>12</v>

--- a/LEL/LELAdmin/UploadFile/商品批量导入格式.xlsx
+++ b/LEL/LELAdmin/UploadFile/商品批量导入格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24090" windowHeight="12465"/>
+    <workbookView windowWidth="22500" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="商品录入" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>商品序列号</t>
   </si>
@@ -97,6 +97,12 @@
     <t>折扣</t>
   </si>
   <si>
+    <t>秒杀开始时间</t>
+  </si>
+  <si>
+    <t>秒杀结束时间</t>
+  </si>
+  <si>
     <t>000001</t>
   </si>
   <si>
@@ -110,6 +116,12 @@
   </si>
   <si>
     <t>10（设置为-1则不限购）</t>
+  </si>
+  <si>
+    <t>20190727000000</t>
+  </si>
+  <si>
+    <t>20190727235959</t>
   </si>
   <si>
     <t>商品图片名</t>
@@ -156,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="19">
@@ -178,9 +190,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -194,7 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -209,23 +236,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -247,13 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -262,47 +288,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -317,6 +329,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,49 +449,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,121 +491,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +520,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,6 +577,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -576,15 +612,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -593,21 +620,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
@@ -616,145 +628,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="6" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,37 +1105,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V$1:V$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="28.75" customWidth="1"/>
-    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="12.8761061946903" customWidth="1"/>
+    <col min="2" max="2" width="16.6283185840708" customWidth="1"/>
+    <col min="3" max="3" width="12.6283185840708" customWidth="1"/>
+    <col min="4" max="4" width="18.1238938053097" customWidth="1"/>
+    <col min="5" max="5" width="11.1238938053097" customWidth="1"/>
+    <col min="8" max="8" width="28.7522123893805" customWidth="1"/>
+    <col min="9" max="9" width="8.87610619469027" customWidth="1"/>
     <col min="10" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="5.375" customWidth="1"/>
-    <col min="13" max="13" width="23.625" customWidth="1"/>
-    <col min="14" max="14" width="22.625" customWidth="1"/>
-    <col min="15" max="15" width="10.875" customWidth="1"/>
-    <col min="16" max="16" width="22.625" customWidth="1"/>
-    <col min="17" max="17" width="20.375" customWidth="1"/>
-    <col min="18" max="18" width="17.375" customWidth="1"/>
-    <col min="19" max="19" width="23.625" customWidth="1"/>
-    <col min="20" max="20" width="18.5" customWidth="1"/>
-    <col min="21" max="21" width="16.125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="16.125" customWidth="1"/>
-    <col min="23" max="24" width="15" customWidth="1"/>
+    <col min="12" max="12" width="5.3716814159292" customWidth="1"/>
+    <col min="13" max="13" width="23.6283185840708" customWidth="1"/>
+    <col min="14" max="14" width="22.6283185840708" customWidth="1"/>
+    <col min="15" max="15" width="10.8761061946903" customWidth="1"/>
+    <col min="16" max="16" width="22.6283185840708" customWidth="1"/>
+    <col min="17" max="17" width="20.3716814159292" customWidth="1"/>
+    <col min="18" max="18" width="17.3716814159292" customWidth="1"/>
+    <col min="19" max="19" width="23.6283185840708" customWidth="1"/>
+    <col min="20" max="20" width="18.5044247787611" customWidth="1"/>
+    <col min="21" max="24" width="16.1238938053097" style="2" customWidth="1"/>
+    <col min="25" max="26" width="11.2212389380531" style="2" customWidth="1"/>
+    <col min="27" max="28" width="16.1946902654867" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1187,34 +1199,40 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:28">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1241,7 +1259,7 @@
         <v>1000</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1267,20 +1285,26 @@
       <c r="U2" s="2">
         <v>0</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="2">
         <v>0</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="2">
         <v>0</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="2">
         <v>0</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="2">
         <v>0</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="2">
         <v>0</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1300,13 +1324,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="19.2477876106195" customWidth="1"/>
+    <col min="2" max="2" width="11.8761061946903" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1314,18 +1338,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1345,9 +1369,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="24.7522123893805" customWidth="1"/>
     <col min="2" max="2" width="63" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="12.3716814159292" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1356,41 +1380,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1410,10 +1434,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="15.2477876106195" customWidth="1"/>
+    <col min="2" max="2" width="13.1238938053097" customWidth="1"/>
+    <col min="3" max="3" width="14.2477876106195" customWidth="1"/>
+    <col min="4" max="4" width="24.8761061946903" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1421,18 +1445,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>12</v>

--- a/LEL/LELAdmin/UploadFile/商品批量导入格式.xlsx
+++ b/LEL/LELAdmin/UploadFile/商品批量导入格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="11235"/>
+    <workbookView windowWidth="24090" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="商品录入" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>商品序列号</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>折扣</t>
+  </si>
+  <si>
+    <t>限购开始时间</t>
+  </si>
+  <si>
+    <t>限购结束时间</t>
   </si>
   <si>
     <t>秒杀开始时间</t>
@@ -168,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="19">
@@ -199,7 +205,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -214,14 +234,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -235,15 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,54 +320,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -329,103 +335,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,42 +503,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -485,31 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +526,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,39 +585,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,6 +599,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,26 +626,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
@@ -628,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="0">
@@ -640,137 +646,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="4" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="6" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,10 +786,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1105,37 +1117,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="12.8761061946903" customWidth="1"/>
-    <col min="2" max="2" width="16.6283185840708" customWidth="1"/>
-    <col min="3" max="3" width="12.6283185840708" customWidth="1"/>
-    <col min="4" max="4" width="18.1238938053097" customWidth="1"/>
-    <col min="5" max="5" width="11.1238938053097" customWidth="1"/>
-    <col min="8" max="8" width="28.7522123893805" customWidth="1"/>
-    <col min="9" max="9" width="8.87610619469027" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="28.75" customWidth="1"/>
+    <col min="9" max="9" width="8.875" customWidth="1"/>
     <col min="10" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="5.3716814159292" customWidth="1"/>
-    <col min="13" max="13" width="23.6283185840708" customWidth="1"/>
-    <col min="14" max="14" width="22.6283185840708" customWidth="1"/>
-    <col min="15" max="15" width="10.8761061946903" customWidth="1"/>
-    <col min="16" max="16" width="22.6283185840708" customWidth="1"/>
-    <col min="17" max="17" width="20.3716814159292" customWidth="1"/>
-    <col min="18" max="18" width="17.3716814159292" customWidth="1"/>
-    <col min="19" max="19" width="23.6283185840708" customWidth="1"/>
-    <col min="20" max="20" width="18.5044247787611" customWidth="1"/>
-    <col min="21" max="24" width="16.1238938053097" style="2" customWidth="1"/>
-    <col min="25" max="26" width="11.2212389380531" style="2" customWidth="1"/>
-    <col min="27" max="28" width="16.1946902654867" customWidth="1"/>
+    <col min="12" max="12" width="5.375" customWidth="1"/>
+    <col min="13" max="13" width="23.625" customWidth="1"/>
+    <col min="14" max="14" width="22.625" customWidth="1"/>
+    <col min="15" max="15" width="10.875" customWidth="1"/>
+    <col min="16" max="16" width="22.625" customWidth="1"/>
+    <col min="17" max="17" width="20.375" customWidth="1"/>
+    <col min="18" max="18" width="17.375" customWidth="1"/>
+    <col min="19" max="19" width="23.625" customWidth="1"/>
+    <col min="20" max="20" width="18.5083333333333" customWidth="1"/>
+    <col min="21" max="24" width="16.125" style="2" customWidth="1"/>
+    <col min="25" max="26" width="11.225" style="2" customWidth="1"/>
+    <col min="27" max="27" width="16" style="3" customWidth="1"/>
+    <col min="28" max="28" width="16" style="2" customWidth="1"/>
+    <col min="29" max="30" width="16.1916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1214,25 +1228,31 @@
       <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
+    <row r="2" spans="1:30">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1259,7 +1279,7 @@
         <v>1000</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1300,11 +1320,17 @@
       <c r="Z2" s="2">
         <v>0</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>34</v>
+      <c r="AA2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1324,13 +1350,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.2477876106195" customWidth="1"/>
-    <col min="2" max="2" width="11.8761061946903" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1338,18 +1364,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1369,9 +1395,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.7522123893805" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="63" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3716814159292" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1380,41 +1406,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
+      <c r="A2" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>28</v>
+      <c r="A3" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1434,10 +1460,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.2477876106195" customWidth="1"/>
-    <col min="2" max="2" width="13.1238938053097" customWidth="1"/>
-    <col min="3" max="3" width="14.2477876106195" customWidth="1"/>
-    <col min="4" max="4" width="24.8761061946903" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1445,18 +1471,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>47</v>
+      <c r="A2" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B2">
         <v>12</v>

--- a/LEL/LELAdmin/UploadFile/商品批量导入格式.xlsx
+++ b/LEL/LELAdmin/UploadFile/商品批量导入格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24090" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="商品录入" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>商品序列号</t>
   </si>
@@ -109,6 +109,12 @@
     <t>秒杀结束时间</t>
   </si>
   <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>供应商</t>
+  </si>
+  <si>
     <t>000001</t>
   </si>
   <si>
@@ -128,6 +134,12 @@
   </si>
   <si>
     <t>20190727235959</t>
+  </si>
+  <si>
+    <t>不可退/1111231</t>
+  </si>
+  <si>
+    <t>乐尔乐/19.0</t>
   </si>
   <si>
     <t>商品图片名</t>
@@ -197,7 +209,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -211,15 +283,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -233,68 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,8 +315,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -317,14 +337,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -335,85 +347,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,97 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,26 +541,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +580,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -590,15 +611,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,145 +646,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="4" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,10 +1129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1147,9 +1159,11 @@
     <col min="27" max="27" width="16" style="3" customWidth="1"/>
     <col min="28" max="28" width="16" style="2" customWidth="1"/>
     <col min="29" max="30" width="16.1916666666667" customWidth="1"/>
+    <col min="31" max="31" width="18" customWidth="1"/>
+    <col min="32" max="32" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1240,19 +1254,25 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1279,7 +1299,7 @@
         <v>1000</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1321,16 +1341,22 @@
         <v>0</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1356,7 +1382,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1364,18 +1390,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1406,41 +1432,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1471,18 +1497,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>12</v>
